--- a/数据整理/stocks/A股/创业板/300319-麦捷科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300319-麦捷科技.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>010568</t>
-  </si>
-  <si>
-    <t>010569</t>
-  </si>
-  <si>
-    <t>海富通惠睿精选混合A</t>
-  </si>
-  <si>
-    <t>海富通惠睿精选混合C</t>
-  </si>
-  <si>
-    <t>7.17</t>
-  </si>
-  <si>
-    <t>2.32</t>
-  </si>
-  <si>
-    <t>23.68</t>
-  </si>
-  <si>
-    <t>0.49</t>
-  </si>
-  <si>
-    <t>0.0351</t>
-  </si>
-  <si>
-    <t>0.0114</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.86</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1378</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3195</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3192</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1043</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300319-麦捷科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300319-麦捷科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1087,4 +1088,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300319-麦捷科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300319-麦捷科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1096,7 +1097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1107,17 +1108,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1127,14 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.05</v>
+          <t>010695</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐益一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.3103</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1143,13 +1186,575 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7489</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2017</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0805</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>54.37</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300319-麦捷科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300319-麦捷科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1685,7 +1686,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1696,17 +1697,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1716,14 +1737,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.76</v>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1732,14 +1775,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.05</v>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>77.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1748,13 +1813,249 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>011603</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>2</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300319-麦捷科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300319-麦捷科技.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,129 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010568</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>海富通惠睿精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.17</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>23.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0351</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010569</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>海富通惠睿精选混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23.68</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0114</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -586,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -607,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -637,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010695</t>
+          <t>011284</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华夏磐益一年定期开放混合</t>
+          <t>中信保诚龙腾精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>22.94</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.86</t>
+          <t>75.38</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.96</t>
+          <t>2.64</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1378</t>
+          <t>0.0322</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519957</t>
+          <t>006209</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合A</t>
+          <t>中信保诚新蓝筹灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16.73</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>22.74</t>
+          <t>77.03</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3195</t>
+          <t>0.0310</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -713,36 +681,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519956</t>
+          <t>011603</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长信睿进灵活配置混合C</t>
+          <t>兴业高端制造混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.71</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>22.74</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3192</t>
+          <t>0.0302</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -751,36 +719,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006366</t>
+          <t>011604</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴业安保优选混合</t>
+          <t>兴业高端制造混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>88.80</t>
+          <t>76.40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>2.54</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1043</t>
+          <t>0.0137</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -789,36 +757,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011603</t>
+          <t>002453</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>兴业高端制造混合A</t>
+          <t>九泰久稳灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>88.56</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0944</t>
+          <t>0.0032</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -827,264 +795,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>011604</t>
+          <t>002454</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>兴业高端制造混合C</t>
+          <t>九泰久稳灵活配置混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>88.56</t>
+          <t>94.85</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.05</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0429</t>
+          <t>0.0014</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>002236</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>大成中证360互联网+大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0118</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002453</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0065</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
         <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003359</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>大成中证360互联网+大数据100指数C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.31</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.10</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008437</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>九泰行业优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>50.36</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0041</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002454</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>九泰久稳灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>91.91</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008438</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>九泰行业优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>50.36</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0014</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1707,7 +1447,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1737,36 +1477,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011284</t>
+          <t>010695</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中信保诚龙腾精选混合</t>
+          <t>华夏磐益一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>22.94</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>75.38</t>
+          <t>99.86</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.64</t>
+          <t>4.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0322</t>
+          <t>1.1378</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1775,36 +1515,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006209</t>
+          <t>519957</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
+          <t>长信睿进灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>16.73</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>77.03</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0310</t>
+          <t>0.3195</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1813,36 +1553,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011603</t>
+          <t>519956</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>兴业高端制造混合A</t>
+          <t>长信睿进灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.19</t>
+          <t>16.71</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76.40</t>
+          <t>22.74</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0302</t>
+          <t>0.3192</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1851,36 +1591,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011604</t>
+          <t>006366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>兴业高端制造混合C</t>
+          <t>兴业安保优选混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.40</t>
+          <t>88.80</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0137</t>
+          <t>0.1043</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1889,36 +1629,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002453</t>
+          <t>011603</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合A</t>
+          <t>兴业高端制造混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.85</t>
+          <t>88.56</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0032</t>
+          <t>0.0944</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1927,36 +1667,264 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011604</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003359</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成中证360互联网+大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008437</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
           <t>002454</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>九泰久稳灵活配置混合C</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.85</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.55</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008438</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>九泰行业优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>50.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>0.0014</t>
         </is>
       </c>
-      <c r="H7" t="n">
-        <v>2</v>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1970,96 +1938,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>010568</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.05</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.05</v>
+          <t>010569</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通惠睿精选混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.68</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>